--- a/database/industries/darou/delor/product/yearly.xlsx
+++ b/database/industries/darou/delor/product/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\delor\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\delor\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C98477-6B67-49D7-8B73-63FA6803B358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC24A11-AFB1-4018-84E7-EE13979BB5CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="49">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
     <t>دوازده ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>شربت</t>
   </si>
   <si>
@@ -155,6 +155,12 @@
   </si>
   <si>
     <t>عدد / ریال</t>
+  </si>
+  <si>
+    <t>ریال / ریال</t>
+  </si>
+  <si>
+    <t>/ ریال</t>
   </si>
   <si>
     <t>مبلغ بهای تمام شده</t>
@@ -620,12 +626,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -635,7 +641,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -647,7 +653,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -659,7 +665,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -669,7 +675,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -681,7 +687,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -693,7 +699,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -703,7 +709,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -725,7 +731,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -735,7 +741,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -743,8 +749,8 @@
         <v>11</v>
       </c>
       <c r="D10" s="9"/>
-      <c r="E10" s="9">
-        <v>14016741</v>
+      <c r="E10" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>12</v>
@@ -759,7 +765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
@@ -767,8 +773,8 @@
         <v>11</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="11">
-        <v>8274350</v>
+      <c r="E11" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>12</v>
@@ -783,7 +789,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
@@ -791,8 +797,8 @@
         <v>11</v>
       </c>
       <c r="D12" s="9"/>
-      <c r="E12" s="9">
-        <v>52925335</v>
+      <c r="E12" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>12</v>
@@ -807,7 +813,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -815,23 +821,23 @@
         <v>11</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="11" t="s">
-        <v>12</v>
+      <c r="E13" s="11">
+        <v>11804873</v>
       </c>
       <c r="F13" s="11">
-        <v>11804873</v>
+        <v>14516421</v>
       </c>
       <c r="G13" s="11">
-        <v>14516421</v>
+        <v>11686567</v>
       </c>
       <c r="H13" s="11">
-        <v>11686567</v>
+        <v>12212167</v>
       </c>
       <c r="I13" s="11">
-        <v>12212167</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13964953</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
@@ -839,15 +845,15 @@
         <v>11</v>
       </c>
       <c r="D14" s="9"/>
-      <c r="E14" s="9">
-        <v>99214</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="9">
+      <c r="E14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="9">
         <v>4530833</v>
       </c>
+      <c r="G14" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="H14" s="9" t="s">
         <v>12</v>
       </c>
@@ -855,7 +861,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
@@ -879,7 +885,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
@@ -887,23 +893,23 @@
         <v>11</v>
       </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="9">
-        <v>0</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>12</v>
+      <c r="E16" s="9">
+        <v>0</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="9">
+        <v>6625480</v>
       </c>
       <c r="H16" s="9">
-        <v>6625480</v>
+        <v>12741100</v>
       </c>
       <c r="I16" s="9">
-        <v>12741100</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12372937</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
@@ -911,23 +917,23 @@
         <v>11</v>
       </c>
       <c r="D17" s="11"/>
-      <c r="E17" s="11" t="s">
-        <v>12</v>
+      <c r="E17" s="11">
+        <v>726178264</v>
       </c>
       <c r="F17" s="11">
-        <v>726178264</v>
+        <v>1040770522</v>
       </c>
       <c r="G17" s="11">
-        <v>1040770522</v>
+        <v>1078499766</v>
       </c>
       <c r="H17" s="11">
-        <v>1078499766</v>
+        <v>864482615</v>
       </c>
       <c r="I17" s="11">
-        <v>864482615</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>921932564</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>20</v>
       </c>
@@ -935,8 +941,8 @@
         <v>11</v>
       </c>
       <c r="D18" s="9"/>
-      <c r="E18" s="9">
-        <v>7354980</v>
+      <c r="E18" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>12</v>
@@ -951,7 +957,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
@@ -959,8 +965,8 @@
         <v>11</v>
       </c>
       <c r="D19" s="11"/>
-      <c r="E19" s="11">
-        <v>578541275</v>
+      <c r="E19" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>12</v>
@@ -975,7 +981,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>22</v>
       </c>
@@ -983,8 +989,8 @@
         <v>11</v>
       </c>
       <c r="D20" s="9"/>
-      <c r="E20" s="9">
-        <v>230416</v>
+      <c r="E20" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>12</v>
@@ -999,7 +1005,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>23</v>
       </c>
@@ -1007,8 +1013,8 @@
         <v>11</v>
       </c>
       <c r="D21" s="11"/>
-      <c r="E21" s="11">
-        <v>2511670</v>
+      <c r="E21" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>12</v>
@@ -1023,7 +1029,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>24</v>
       </c>
@@ -1031,8 +1037,8 @@
         <v>11</v>
       </c>
       <c r="D22" s="9"/>
-      <c r="E22" s="9">
-        <v>15384480</v>
+      <c r="E22" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>12</v>
@@ -1047,7 +1053,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>25</v>
       </c>
@@ -1055,8 +1061,8 @@
         <v>11</v>
       </c>
       <c r="D23" s="11"/>
-      <c r="E23" s="11">
-        <v>13548936</v>
+      <c r="E23" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>12</v>
@@ -1071,7 +1077,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>26</v>
       </c>
@@ -1079,8 +1085,8 @@
         <v>11</v>
       </c>
       <c r="D24" s="9"/>
-      <c r="E24" s="9">
-        <v>18488818</v>
+      <c r="E24" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>12</v>
@@ -1095,7 +1101,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>27</v>
       </c>
@@ -1103,8 +1109,8 @@
         <v>11</v>
       </c>
       <c r="D25" s="11"/>
-      <c r="E25" s="11">
-        <v>73935787</v>
+      <c r="E25" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>12</v>
@@ -1119,7 +1125,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>28</v>
       </c>
@@ -1127,8 +1133,8 @@
         <v>11</v>
       </c>
       <c r="D26" s="9"/>
-      <c r="E26" s="9">
-        <v>3981385</v>
+      <c r="E26" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>12</v>
@@ -1143,7 +1149,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>29</v>
       </c>
@@ -1151,8 +1157,8 @@
         <v>11</v>
       </c>
       <c r="D27" s="11"/>
-      <c r="E27" s="11">
-        <v>74898</v>
+      <c r="E27" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>12</v>
@@ -1167,7 +1173,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>30</v>
       </c>
@@ -1175,8 +1181,8 @@
         <v>11</v>
       </c>
       <c r="D28" s="9"/>
-      <c r="E28" s="9">
-        <v>1774794</v>
+      <c r="E28" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>12</v>
@@ -1191,7 +1197,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>31</v>
       </c>
@@ -1206,14 +1212,14 @@
       <c r="G29" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H29" s="11" t="s">
-        <v>12</v>
+      <c r="H29" s="11">
+        <v>0</v>
       </c>
       <c r="I29" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>32</v>
       </c>
@@ -1237,7 +1243,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>33</v>
       </c>
@@ -1261,7 +1267,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>34</v>
       </c>
@@ -1269,23 +1275,23 @@
         <v>11</v>
       </c>
       <c r="D32" s="9"/>
-      <c r="E32" s="9" t="s">
-        <v>12</v>
+      <c r="E32" s="9">
+        <v>109765799</v>
       </c>
       <c r="F32" s="9">
-        <v>109765799</v>
+        <v>130832392</v>
       </c>
       <c r="G32" s="9">
-        <v>130832392</v>
+        <v>152257145</v>
       </c>
       <c r="H32" s="9">
-        <v>152257145</v>
+        <v>153655489</v>
       </c>
       <c r="I32" s="9">
-        <v>153655489</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+        <v>149845492</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>35</v>
       </c>
@@ -1293,45 +1299,45 @@
         <v>11</v>
       </c>
       <c r="D33" s="11"/>
-      <c r="E33" s="11" t="s">
-        <v>12</v>
+      <c r="E33" s="11">
+        <v>30997294</v>
       </c>
       <c r="F33" s="11">
-        <v>30997294</v>
+        <v>46096825</v>
       </c>
       <c r="G33" s="11">
-        <v>46096825</v>
+        <v>81877314</v>
       </c>
       <c r="H33" s="11">
-        <v>81877314</v>
+        <v>60664489</v>
       </c>
       <c r="I33" s="11">
-        <v>60664489</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+        <v>79351689</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13">
-        <v>791143079</v>
+        <v>878746230</v>
       </c>
       <c r="F34" s="13">
-        <v>878746230</v>
+        <v>1236746993</v>
       </c>
       <c r="G34" s="13">
-        <v>1236746993</v>
+        <v>1330946272</v>
       </c>
       <c r="H34" s="13">
-        <v>1330946272</v>
+        <v>1103755860</v>
       </c>
       <c r="I34" s="13">
-        <v>1103755860</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1177467635</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1341,7 +1347,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1351,7 +1357,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1361,7 +1367,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>37</v>
       </c>
@@ -1383,7 +1389,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1393,7 +1399,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>10</v>
       </c>
@@ -1401,8 +1407,8 @@
         <v>11</v>
       </c>
       <c r="D40" s="9"/>
-      <c r="E40" s="9">
-        <v>14490107</v>
+      <c r="E40" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F40" s="9" t="s">
         <v>12</v>
@@ -1417,7 +1423,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>13</v>
       </c>
@@ -1425,8 +1431,8 @@
         <v>11</v>
       </c>
       <c r="D41" s="11"/>
-      <c r="E41" s="11">
-        <v>9871835</v>
+      <c r="E41" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="F41" s="11" t="s">
         <v>12</v>
@@ -1441,7 +1447,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>14</v>
       </c>
@@ -1449,8 +1455,8 @@
         <v>11</v>
       </c>
       <c r="D42" s="9"/>
-      <c r="E42" s="9">
-        <v>54874661</v>
+      <c r="E42" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F42" s="9" t="s">
         <v>12</v>
@@ -1465,7 +1471,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>15</v>
       </c>
@@ -1473,23 +1479,23 @@
         <v>11</v>
       </c>
       <c r="D43" s="11"/>
-      <c r="E43" s="11" t="s">
-        <v>12</v>
+      <c r="E43" s="11">
+        <v>10975537</v>
       </c>
       <c r="F43" s="11">
-        <v>10975537</v>
+        <v>15998209</v>
       </c>
       <c r="G43" s="11">
-        <v>15998209</v>
+        <v>14435572</v>
       </c>
       <c r="H43" s="11">
-        <v>14435572</v>
+        <v>15691588</v>
       </c>
       <c r="I43" s="11">
-        <v>15691588</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16942621</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>16</v>
       </c>
@@ -1497,8 +1503,8 @@
         <v>11</v>
       </c>
       <c r="D44" s="9"/>
-      <c r="E44" s="9">
-        <v>99214</v>
+      <c r="E44" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F44" s="9" t="s">
         <v>12</v>
@@ -1513,7 +1519,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>17</v>
       </c>
@@ -1537,7 +1543,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>18</v>
       </c>
@@ -1545,8 +1551,8 @@
         <v>11</v>
       </c>
       <c r="D46" s="9"/>
-      <c r="E46" s="9" t="s">
-        <v>12</v>
+      <c r="E46" s="9">
+        <v>0</v>
       </c>
       <c r="F46" s="9">
         <v>0</v>
@@ -1555,13 +1561,13 @@
         <v>0</v>
       </c>
       <c r="H46" s="9">
-        <v>0</v>
+        <v>11806852</v>
       </c>
       <c r="I46" s="9">
-        <v>11806852</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+        <v>14107616</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>38</v>
       </c>
@@ -1569,14 +1575,14 @@
         <v>39</v>
       </c>
       <c r="D47" s="11"/>
-      <c r="E47" s="11" t="s">
-        <v>12</v>
+      <c r="E47" s="11">
+        <v>0</v>
       </c>
       <c r="F47" s="11">
         <v>0</v>
       </c>
-      <c r="G47" s="11">
-        <v>0</v>
+      <c r="G47" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H47" s="11" t="s">
         <v>12</v>
@@ -1585,7 +1591,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>38</v>
       </c>
@@ -1599,17 +1605,17 @@
       <c r="F48" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G48" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H48" s="9">
-        <v>0</v>
+      <c r="G48" s="9">
+        <v>0</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="I48" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>19</v>
       </c>
@@ -1617,23 +1623,23 @@
         <v>11</v>
       </c>
       <c r="D49" s="11"/>
-      <c r="E49" s="11" t="s">
-        <v>12</v>
+      <c r="E49" s="11">
+        <v>632803215</v>
       </c>
       <c r="F49" s="11">
-        <v>632803215</v>
+        <v>1018929823</v>
       </c>
       <c r="G49" s="11">
-        <v>1018929823</v>
+        <v>1043524988</v>
       </c>
       <c r="H49" s="11">
-        <v>1043524988</v>
+        <v>934309731</v>
       </c>
       <c r="I49" s="11">
-        <v>934309731</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+        <v>937446977</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>20</v>
       </c>
@@ -1641,8 +1647,8 @@
         <v>11</v>
       </c>
       <c r="D50" s="9"/>
-      <c r="E50" s="9">
-        <v>18407080</v>
+      <c r="E50" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F50" s="9" t="s">
         <v>12</v>
@@ -1657,7 +1663,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>21</v>
       </c>
@@ -1665,8 +1671,8 @@
         <v>11</v>
       </c>
       <c r="D51" s="11"/>
-      <c r="E51" s="11">
-        <v>584861790</v>
+      <c r="E51" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="F51" s="11" t="s">
         <v>12</v>
@@ -1681,7 +1687,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>22</v>
       </c>
@@ -1689,8 +1695,8 @@
         <v>11</v>
       </c>
       <c r="D52" s="9"/>
-      <c r="E52" s="9">
-        <v>318089</v>
+      <c r="E52" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F52" s="9" t="s">
         <v>12</v>
@@ -1705,7 +1711,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>23</v>
       </c>
@@ -1713,8 +1719,8 @@
         <v>11</v>
       </c>
       <c r="D53" s="11"/>
-      <c r="E53" s="11">
-        <v>2354050</v>
+      <c r="E53" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="F53" s="11" t="s">
         <v>12</v>
@@ -1729,7 +1735,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>24</v>
       </c>
@@ -1737,8 +1743,8 @@
         <v>11</v>
       </c>
       <c r="D54" s="9"/>
-      <c r="E54" s="9">
-        <v>15358305</v>
+      <c r="E54" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F54" s="9" t="s">
         <v>12</v>
@@ -1753,7 +1759,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>25</v>
       </c>
@@ -1761,8 +1767,8 @@
         <v>11</v>
       </c>
       <c r="D55" s="11"/>
-      <c r="E55" s="11">
-        <v>14000576</v>
+      <c r="E55" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="F55" s="11" t="s">
         <v>12</v>
@@ -1777,7 +1783,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>26</v>
       </c>
@@ -1785,8 +1791,8 @@
         <v>11</v>
       </c>
       <c r="D56" s="9"/>
-      <c r="E56" s="9">
-        <v>19261979</v>
+      <c r="E56" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F56" s="9" t="s">
         <v>12</v>
@@ -1801,7 +1807,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>27</v>
       </c>
@@ -1809,8 +1815,8 @@
         <v>11</v>
       </c>
       <c r="D57" s="11"/>
-      <c r="E57" s="11">
-        <v>72771719</v>
+      <c r="E57" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="F57" s="11" t="s">
         <v>12</v>
@@ -1825,7 +1831,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>28</v>
       </c>
@@ -1833,8 +1839,8 @@
         <v>11</v>
       </c>
       <c r="D58" s="9"/>
-      <c r="E58" s="9">
-        <v>3745712</v>
+      <c r="E58" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F58" s="9" t="s">
         <v>12</v>
@@ -1849,7 +1855,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>40</v>
       </c>
@@ -1857,8 +1863,8 @@
         <v>11</v>
       </c>
       <c r="D59" s="11"/>
-      <c r="E59" s="11">
-        <v>3030440</v>
+      <c r="E59" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="F59" s="11" t="s">
         <v>12</v>
@@ -1873,7 +1879,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>29</v>
       </c>
@@ -1881,8 +1887,8 @@
         <v>11</v>
       </c>
       <c r="D60" s="9"/>
-      <c r="E60" s="9">
-        <v>59206</v>
+      <c r="E60" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F60" s="9" t="s">
         <v>12</v>
@@ -1897,7 +1903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>30</v>
       </c>
@@ -1905,8 +1911,8 @@
         <v>11</v>
       </c>
       <c r="D61" s="11"/>
-      <c r="E61" s="11">
-        <v>2070369</v>
+      <c r="E61" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="F61" s="11" t="s">
         <v>12</v>
@@ -1921,14 +1927,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
-      <c r="E62" s="9" t="s">
-        <v>12</v>
+      <c r="E62" s="9">
+        <v>0</v>
       </c>
       <c r="F62" s="9">
         <v>0</v>
@@ -1943,7 +1949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>32</v>
       </c>
@@ -1967,7 +1973,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>33</v>
       </c>
@@ -1991,7 +1997,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>34</v>
       </c>
@@ -1999,23 +2005,23 @@
         <v>11</v>
       </c>
       <c r="D65" s="11"/>
-      <c r="E65" s="11" t="s">
-        <v>12</v>
+      <c r="E65" s="11">
+        <v>94111618</v>
       </c>
       <c r="F65" s="11">
-        <v>94111618</v>
+        <v>140277876</v>
       </c>
       <c r="G65" s="11">
-        <v>140277876</v>
+        <v>134325997</v>
       </c>
       <c r="H65" s="11">
-        <v>134325997</v>
+        <v>170589873</v>
       </c>
       <c r="I65" s="11">
-        <v>170589873</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+        <v>150439729</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>35</v>
       </c>
@@ -2023,45 +2029,45 @@
         <v>11</v>
       </c>
       <c r="D66" s="9"/>
-      <c r="E66" s="9" t="s">
-        <v>12</v>
+      <c r="E66" s="9">
+        <v>29115195</v>
       </c>
       <c r="F66" s="9">
-        <v>29115195</v>
+        <v>43631384</v>
       </c>
       <c r="G66" s="9">
-        <v>43631384</v>
+        <v>69328464</v>
       </c>
       <c r="H66" s="9">
-        <v>69328464</v>
+        <v>73089216</v>
       </c>
       <c r="I66" s="9">
-        <v>73089216</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+        <v>74346276</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C67" s="15"/>
       <c r="D67" s="15"/>
       <c r="E67" s="15">
-        <v>815575132</v>
+        <v>767005565</v>
       </c>
       <c r="F67" s="15">
-        <v>767005565</v>
+        <v>1218837292</v>
       </c>
       <c r="G67" s="15">
-        <v>1218837292</v>
+        <v>1261615021</v>
       </c>
       <c r="H67" s="15">
-        <v>1261615021</v>
+        <v>1205487260</v>
       </c>
       <c r="I67" s="15">
-        <v>1205487260</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1193283219</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2071,7 +2077,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2081,7 +2087,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2091,7 +2097,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B71" s="7" t="s">
         <v>41</v>
       </c>
@@ -2113,7 +2119,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2123,7 +2129,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>10</v>
       </c>
@@ -2131,8 +2137,8 @@
         <v>42</v>
       </c>
       <c r="D73" s="9"/>
-      <c r="E73" s="9">
-        <v>340888</v>
+      <c r="E73" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F73" s="9" t="s">
         <v>12</v>
@@ -2147,7 +2153,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>13</v>
       </c>
@@ -2155,8 +2161,8 @@
         <v>42</v>
       </c>
       <c r="D74" s="11"/>
-      <c r="E74" s="11">
-        <v>72975</v>
+      <c r="E74" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="F74" s="11" t="s">
         <v>12</v>
@@ -2171,7 +2177,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>14</v>
       </c>
@@ -2179,8 +2185,8 @@
         <v>42</v>
       </c>
       <c r="D75" s="9"/>
-      <c r="E75" s="9">
-        <v>724530</v>
+      <c r="E75" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F75" s="9" t="s">
         <v>12</v>
@@ -2195,7 +2201,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>15</v>
       </c>
@@ -2203,23 +2209,23 @@
         <v>42</v>
       </c>
       <c r="D76" s="11"/>
-      <c r="E76" s="11" t="s">
-        <v>12</v>
+      <c r="E76" s="11">
+        <v>383687</v>
       </c>
       <c r="F76" s="11">
-        <v>383687</v>
+        <v>1005889</v>
       </c>
       <c r="G76" s="11">
-        <v>1005889</v>
+        <v>1260376</v>
       </c>
       <c r="H76" s="11">
-        <v>1260376</v>
+        <v>1667703</v>
       </c>
       <c r="I76" s="11">
-        <v>1667703</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2553317</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>16</v>
       </c>
@@ -2227,8 +2233,8 @@
         <v>42</v>
       </c>
       <c r="D77" s="9"/>
-      <c r="E77" s="9">
-        <v>298</v>
+      <c r="E77" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F77" s="9" t="s">
         <v>12</v>
@@ -2243,7 +2249,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>17</v>
       </c>
@@ -2267,7 +2273,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>18</v>
       </c>
@@ -2275,23 +2281,23 @@
         <v>42</v>
       </c>
       <c r="D79" s="9"/>
-      <c r="E79" s="9" t="s">
-        <v>12</v>
+      <c r="E79" s="9">
+        <v>15287</v>
       </c>
       <c r="F79" s="9">
-        <v>15287</v>
+        <v>97085</v>
       </c>
       <c r="G79" s="9">
-        <v>97085</v>
+        <v>268666</v>
       </c>
       <c r="H79" s="9">
-        <v>268666</v>
+        <v>315277</v>
       </c>
       <c r="I79" s="9">
-        <v>315277</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+        <v>378659</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>38</v>
       </c>
@@ -2299,8 +2305,8 @@
         <v>42</v>
       </c>
       <c r="D80" s="11"/>
-      <c r="E80" s="11" t="s">
-        <v>12</v>
+      <c r="E80" s="11">
+        <v>0</v>
       </c>
       <c r="F80" s="11">
         <v>0</v>
@@ -2308,14 +2314,14 @@
       <c r="G80" s="11">
         <v>0</v>
       </c>
-      <c r="H80" s="11">
-        <v>0</v>
+      <c r="H80" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="I80" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>19</v>
       </c>
@@ -2323,23 +2329,23 @@
         <v>42</v>
       </c>
       <c r="D81" s="9"/>
-      <c r="E81" s="9" t="s">
-        <v>12</v>
+      <c r="E81" s="9">
+        <v>783450</v>
       </c>
       <c r="F81" s="9">
-        <v>783450</v>
+        <v>1781413</v>
       </c>
       <c r="G81" s="9">
-        <v>1781413</v>
+        <v>2355847</v>
       </c>
       <c r="H81" s="9">
-        <v>2355847</v>
+        <v>3055311</v>
       </c>
       <c r="I81" s="9">
-        <v>3055311</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5007868</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>20</v>
       </c>
@@ -2347,8 +2353,8 @@
         <v>42</v>
       </c>
       <c r="D82" s="11"/>
-      <c r="E82" s="11">
-        <v>32011</v>
+      <c r="E82" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="F82" s="11" t="s">
         <v>12</v>
@@ -2363,7 +2369,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>21</v>
       </c>
@@ -2371,8 +2377,8 @@
         <v>42</v>
       </c>
       <c r="D83" s="9"/>
-      <c r="E83" s="9">
-        <v>382365</v>
+      <c r="E83" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F83" s="9" t="s">
         <v>12</v>
@@ -2387,7 +2393,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>22</v>
       </c>
@@ -2395,8 +2401,8 @@
         <v>42</v>
       </c>
       <c r="D84" s="11"/>
-      <c r="E84" s="11">
-        <v>92303</v>
+      <c r="E84" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="F84" s="11" t="s">
         <v>12</v>
@@ -2411,7 +2417,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>23</v>
       </c>
@@ -2419,8 +2425,8 @@
         <v>42</v>
       </c>
       <c r="D85" s="9"/>
-      <c r="E85" s="9">
-        <v>61091</v>
+      <c r="E85" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F85" s="9" t="s">
         <v>12</v>
@@ -2435,7 +2441,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>24</v>
       </c>
@@ -2443,8 +2449,8 @@
         <v>42</v>
       </c>
       <c r="D86" s="11"/>
-      <c r="E86" s="11">
-        <v>516388</v>
+      <c r="E86" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="F86" s="11" t="s">
         <v>12</v>
@@ -2459,7 +2465,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>25</v>
       </c>
@@ -2467,8 +2473,8 @@
         <v>42</v>
       </c>
       <c r="D87" s="9"/>
-      <c r="E87" s="9">
-        <v>59970</v>
+      <c r="E87" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F87" s="9" t="s">
         <v>12</v>
@@ -2483,7 +2489,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>26</v>
       </c>
@@ -2491,8 +2497,8 @@
         <v>42</v>
       </c>
       <c r="D88" s="11"/>
-      <c r="E88" s="11">
-        <v>424890</v>
+      <c r="E88" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="F88" s="11" t="s">
         <v>12</v>
@@ -2507,7 +2513,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
         <v>27</v>
       </c>
@@ -2515,8 +2521,8 @@
         <v>42</v>
       </c>
       <c r="D89" s="9"/>
-      <c r="E89" s="9">
-        <v>93094</v>
+      <c r="E89" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F89" s="9" t="s">
         <v>12</v>
@@ -2531,7 +2537,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>28</v>
       </c>
@@ -2539,8 +2545,8 @@
         <v>42</v>
       </c>
       <c r="D90" s="11"/>
-      <c r="E90" s="11">
-        <v>427661</v>
+      <c r="E90" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="F90" s="11" t="s">
         <v>12</v>
@@ -2555,7 +2561,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>40</v>
       </c>
@@ -2563,8 +2569,8 @@
         <v>42</v>
       </c>
       <c r="D91" s="9"/>
-      <c r="E91" s="9">
-        <v>10330</v>
+      <c r="E91" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F91" s="9" t="s">
         <v>12</v>
@@ -2579,7 +2585,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>29</v>
       </c>
@@ -2587,8 +2593,8 @@
         <v>42</v>
       </c>
       <c r="D92" s="11"/>
-      <c r="E92" s="11">
-        <v>102658</v>
+      <c r="E92" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="F92" s="11" t="s">
         <v>12</v>
@@ -2603,7 +2609,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>30</v>
       </c>
@@ -2611,8 +2617,8 @@
         <v>42</v>
       </c>
       <c r="D93" s="9"/>
-      <c r="E93" s="9">
-        <v>40558</v>
+      <c r="E93" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F93" s="9" t="s">
         <v>12</v>
@@ -2627,7 +2633,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>31</v>
       </c>
@@ -2635,8 +2641,8 @@
         <v>42</v>
       </c>
       <c r="D94" s="11"/>
-      <c r="E94" s="11" t="s">
-        <v>12</v>
+      <c r="E94" s="11">
+        <v>0</v>
       </c>
       <c r="F94" s="11">
         <v>0</v>
@@ -2651,7 +2657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="8" t="s">
         <v>32</v>
       </c>
@@ -2675,7 +2681,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
         <v>33</v>
       </c>
@@ -2699,7 +2705,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>34</v>
       </c>
@@ -2707,23 +2713,23 @@
         <v>42</v>
       </c>
       <c r="D97" s="9"/>
-      <c r="E97" s="9" t="s">
-        <v>12</v>
+      <c r="E97" s="9">
+        <v>2394534</v>
       </c>
       <c r="F97" s="9">
-        <v>2394534</v>
+        <v>3692939</v>
       </c>
       <c r="G97" s="9">
-        <v>3692939</v>
+        <v>4751884</v>
       </c>
       <c r="H97" s="9">
-        <v>4751884</v>
+        <v>13393928</v>
       </c>
       <c r="I97" s="9">
-        <v>13393928</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12554855</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>35</v>
       </c>
@@ -2731,45 +2737,45 @@
         <v>42</v>
       </c>
       <c r="D98" s="11"/>
-      <c r="E98" s="11" t="s">
-        <v>12</v>
+      <c r="E98" s="11">
+        <v>794827</v>
       </c>
       <c r="F98" s="11">
-        <v>794827</v>
+        <v>1224259</v>
       </c>
       <c r="G98" s="11">
-        <v>1224259</v>
+        <v>1758811</v>
       </c>
       <c r="H98" s="11">
-        <v>1758811</v>
+        <v>2739519</v>
       </c>
       <c r="I98" s="11">
-        <v>2739519</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4826006</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C99" s="13"/>
       <c r="D99" s="13"/>
       <c r="E99" s="13">
-        <v>3382010</v>
+        <v>4371785</v>
       </c>
       <c r="F99" s="13">
-        <v>4371785</v>
+        <v>7801585</v>
       </c>
       <c r="G99" s="13">
-        <v>7801585</v>
+        <v>10395584</v>
       </c>
       <c r="H99" s="13">
-        <v>10395584</v>
+        <v>21171738</v>
       </c>
       <c r="I99" s="13">
-        <v>21171738</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+        <v>25320705</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2779,7 +2785,7 @@
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -2789,7 +2795,7 @@
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2799,7 +2805,7 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B103" s="7" t="s">
         <v>43</v>
       </c>
@@ -2821,7 +2827,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2831,7 +2837,7 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
         <v>10</v>
       </c>
@@ -2839,8 +2845,8 @@
         <v>44</v>
       </c>
       <c r="D105" s="9"/>
-      <c r="E105" s="9">
-        <v>23526</v>
+      <c r="E105" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F105" s="9" t="s">
         <v>12</v>
@@ -2855,7 +2861,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="s">
         <v>13</v>
       </c>
@@ -2863,8 +2869,8 @@
         <v>44</v>
       </c>
       <c r="D106" s="11"/>
-      <c r="E106" s="11">
-        <v>7392</v>
+      <c r="E106" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="F106" s="11" t="s">
         <v>12</v>
@@ -2879,7 +2885,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>14</v>
       </c>
@@ -2887,8 +2893,8 @@
         <v>44</v>
       </c>
       <c r="D107" s="9"/>
-      <c r="E107" s="9">
-        <v>13203</v>
+      <c r="E107" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F107" s="9" t="s">
         <v>12</v>
@@ -2903,7 +2909,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
         <v>15</v>
       </c>
@@ -2911,23 +2917,23 @@
         <v>44</v>
       </c>
       <c r="D108" s="11"/>
-      <c r="E108" s="11" t="s">
-        <v>12</v>
+      <c r="E108" s="11">
+        <v>34958</v>
       </c>
       <c r="F108" s="11">
-        <v>34958</v>
+        <v>62875</v>
       </c>
       <c r="G108" s="11">
-        <v>62875</v>
+        <v>87310</v>
       </c>
       <c r="H108" s="11">
-        <v>87310</v>
+        <v>106280</v>
       </c>
       <c r="I108" s="11">
-        <v>106280</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+        <v>150704</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>16</v>
       </c>
@@ -2935,8 +2941,8 @@
         <v>44</v>
       </c>
       <c r="D109" s="9"/>
-      <c r="E109" s="9">
-        <v>3004</v>
+      <c r="E109" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F109" s="9" t="s">
         <v>12</v>
@@ -2951,7 +2957,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>17</v>
       </c>
@@ -2975,7 +2981,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>18</v>
       </c>
@@ -2983,8 +2989,8 @@
         <v>44</v>
       </c>
       <c r="D111" s="9"/>
-      <c r="E111" s="9" t="s">
-        <v>12</v>
+      <c r="E111" s="9">
+        <v>0</v>
       </c>
       <c r="F111" s="9">
         <v>0</v>
@@ -2993,22 +2999,22 @@
         <v>0</v>
       </c>
       <c r="H111" s="9">
-        <v>0</v>
+        <v>26703</v>
       </c>
       <c r="I111" s="9">
-        <v>26703</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+        <v>26841</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D112" s="11"/>
-      <c r="E112" s="11" t="s">
-        <v>12</v>
+      <c r="E112" s="11">
+        <v>0</v>
       </c>
       <c r="F112" s="11">
         <v>0</v>
@@ -3016,14 +3022,14 @@
       <c r="G112" s="11">
         <v>0</v>
       </c>
-      <c r="H112" s="11">
-        <v>0</v>
+      <c r="H112" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="I112" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>19</v>
       </c>
@@ -3031,23 +3037,23 @@
         <v>44</v>
       </c>
       <c r="D113" s="9"/>
-      <c r="E113" s="9" t="s">
-        <v>12</v>
+      <c r="E113" s="9">
+        <v>1238</v>
       </c>
       <c r="F113" s="9">
-        <v>1238</v>
+        <v>1748</v>
       </c>
       <c r="G113" s="9">
-        <v>1748</v>
+        <v>2258</v>
       </c>
       <c r="H113" s="9">
-        <v>2258</v>
+        <v>3270</v>
       </c>
       <c r="I113" s="9">
-        <v>3270</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
         <v>20</v>
       </c>
@@ -3055,8 +3061,8 @@
         <v>44</v>
       </c>
       <c r="D114" s="11"/>
-      <c r="E114" s="11">
-        <v>1739</v>
+      <c r="E114" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="F114" s="11" t="s">
         <v>12</v>
@@ -3071,7 +3077,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>21</v>
       </c>
@@ -3079,8 +3085,8 @@
         <v>44</v>
       </c>
       <c r="D115" s="9"/>
-      <c r="E115" s="9">
-        <v>654</v>
+      <c r="E115" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F115" s="9" t="s">
         <v>12</v>
@@ -3095,7 +3101,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>22</v>
       </c>
@@ -3103,8 +3109,8 @@
         <v>44</v>
       </c>
       <c r="D116" s="11"/>
-      <c r="E116" s="11">
-        <v>290180</v>
+      <c r="E116" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="F116" s="11" t="s">
         <v>12</v>
@@ -3119,7 +3125,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>23</v>
       </c>
@@ -3127,8 +3133,8 @@
         <v>44</v>
       </c>
       <c r="D117" s="9"/>
-      <c r="E117" s="9">
-        <v>25951</v>
+      <c r="E117" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F117" s="9" t="s">
         <v>12</v>
@@ -3143,7 +3149,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>24</v>
       </c>
@@ -3151,8 +3157,8 @@
         <v>44</v>
       </c>
       <c r="D118" s="11"/>
-      <c r="E118" s="11">
-        <v>33623</v>
+      <c r="E118" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="F118" s="11" t="s">
         <v>12</v>
@@ -3167,7 +3173,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>25</v>
       </c>
@@ -3175,8 +3181,8 @@
         <v>44</v>
       </c>
       <c r="D119" s="9"/>
-      <c r="E119" s="9">
-        <v>4283</v>
+      <c r="E119" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F119" s="9" t="s">
         <v>12</v>
@@ -3191,7 +3197,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>26</v>
       </c>
@@ -3199,8 +3205,8 @@
         <v>44</v>
       </c>
       <c r="D120" s="11"/>
-      <c r="E120" s="11">
-        <v>22058</v>
+      <c r="E120" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="F120" s="11" t="s">
         <v>12</v>
@@ -3215,7 +3221,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
         <v>27</v>
       </c>
@@ -3223,8 +3229,8 @@
         <v>44</v>
       </c>
       <c r="D121" s="9"/>
-      <c r="E121" s="9">
-        <v>1279</v>
+      <c r="E121" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F121" s="9" t="s">
         <v>12</v>
@@ -3239,7 +3245,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="10" t="s">
         <v>28</v>
       </c>
@@ -3247,8 +3253,8 @@
         <v>44</v>
       </c>
       <c r="D122" s="11"/>
-      <c r="E122" s="11">
-        <v>114173</v>
+      <c r="E122" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="F122" s="11" t="s">
         <v>12</v>
@@ -3263,7 +3269,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
         <v>40</v>
       </c>
@@ -3271,8 +3277,8 @@
         <v>44</v>
       </c>
       <c r="D123" s="9"/>
-      <c r="E123" s="9">
-        <v>3409</v>
+      <c r="E123" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F123" s="9" t="s">
         <v>12</v>
@@ -3287,7 +3293,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
         <v>29</v>
       </c>
@@ -3295,8 +3301,8 @@
         <v>44</v>
       </c>
       <c r="D124" s="11"/>
-      <c r="E124" s="11">
-        <v>1733912</v>
+      <c r="E124" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="F124" s="11" t="s">
         <v>12</v>
@@ -3311,7 +3317,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
         <v>30</v>
       </c>
@@ -3319,8 +3325,8 @@
         <v>44</v>
       </c>
       <c r="D125" s="9"/>
-      <c r="E125" s="9">
-        <v>19590</v>
+      <c r="E125" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F125" s="9" t="s">
         <v>12</v>
@@ -3335,16 +3341,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D126" s="11"/>
-      <c r="E126" s="11" t="s">
-        <v>12</v>
+      <c r="E126" s="11">
+        <v>0</v>
       </c>
       <c r="F126" s="11">
         <v>0</v>
@@ -3359,7 +3365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>32</v>
       </c>
@@ -3383,7 +3389,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>33</v>
       </c>
@@ -3407,7 +3413,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
         <v>34</v>
       </c>
@@ -3415,23 +3421,23 @@
         <v>44</v>
       </c>
       <c r="D129" s="9"/>
-      <c r="E129" s="9" t="s">
-        <v>12</v>
+      <c r="E129" s="9">
+        <v>25444</v>
       </c>
       <c r="F129" s="9">
-        <v>25444</v>
+        <v>26326</v>
       </c>
       <c r="G129" s="9">
-        <v>26326</v>
+        <v>35376</v>
       </c>
       <c r="H129" s="9">
-        <v>35376</v>
+        <v>78515</v>
       </c>
       <c r="I129" s="9">
-        <v>78515</v>
-      </c>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+        <v>83454</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>35</v>
       </c>
@@ -3439,23 +3445,23 @@
         <v>44</v>
       </c>
       <c r="D130" s="11"/>
-      <c r="E130" s="11" t="s">
-        <v>12</v>
+      <c r="E130" s="11">
+        <v>27299</v>
       </c>
       <c r="F130" s="11">
-        <v>27299</v>
+        <v>28059</v>
       </c>
       <c r="G130" s="11">
-        <v>28059</v>
+        <v>25369</v>
       </c>
       <c r="H130" s="11">
-        <v>25369</v>
+        <v>37482</v>
       </c>
       <c r="I130" s="11">
-        <v>37482</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+        <v>64913</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -3465,7 +3471,7 @@
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3475,7 +3481,7 @@
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -3485,9 +3491,9 @@
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
     </row>
-    <row r="134" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B134" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
@@ -3507,7 +3513,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -3517,7 +3523,7 @@
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136" s="8" t="s">
         <v>15</v>
       </c>
@@ -3525,23 +3531,23 @@
         <v>42</v>
       </c>
       <c r="D136" s="9"/>
-      <c r="E136" s="9" t="s">
-        <v>12</v>
+      <c r="E136" s="9">
+        <v>-249107</v>
       </c>
       <c r="F136" s="9">
-        <v>-249107</v>
+        <v>-445023</v>
       </c>
       <c r="G136" s="9">
-        <v>-445023</v>
+        <v>-571058</v>
       </c>
       <c r="H136" s="9">
-        <v>-571058</v>
+        <v>-992172</v>
       </c>
       <c r="I136" s="9">
-        <v>-992172</v>
-      </c>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1382709</v>
+      </c>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="10" t="s">
         <v>18</v>
       </c>
@@ -3549,23 +3555,23 @@
         <v>42</v>
       </c>
       <c r="D137" s="11"/>
-      <c r="E137" s="11" t="s">
-        <v>12</v>
+      <c r="E137" s="11">
+        <v>-6115</v>
       </c>
       <c r="F137" s="11">
-        <v>-6115</v>
+        <v>-11146</v>
       </c>
       <c r="G137" s="11">
-        <v>-11146</v>
+        <v>-47130</v>
       </c>
       <c r="H137" s="11">
-        <v>-47130</v>
+        <v>-29628</v>
       </c>
       <c r="I137" s="11">
-        <v>-29628</v>
-      </c>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-116916</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B138" s="8" t="s">
         <v>38</v>
       </c>
@@ -3573,8 +3579,8 @@
         <v>42</v>
       </c>
       <c r="D138" s="9"/>
-      <c r="E138" s="9" t="s">
-        <v>12</v>
+      <c r="E138" s="9">
+        <v>0</v>
       </c>
       <c r="F138" s="9">
         <v>0</v>
@@ -3582,14 +3588,14 @@
       <c r="G138" s="9">
         <v>0</v>
       </c>
-      <c r="H138" s="9">
-        <v>0</v>
+      <c r="H138" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="I138" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B139" s="10" t="s">
         <v>19</v>
       </c>
@@ -3597,23 +3603,23 @@
         <v>42</v>
       </c>
       <c r="D139" s="11"/>
-      <c r="E139" s="11" t="s">
-        <v>12</v>
+      <c r="E139" s="11">
+        <v>-478886</v>
       </c>
       <c r="F139" s="11">
-        <v>-478886</v>
+        <v>-909239</v>
       </c>
       <c r="G139" s="11">
-        <v>-909239</v>
+        <v>-1232293</v>
       </c>
       <c r="H139" s="11">
-        <v>-1232293</v>
+        <v>-1841041</v>
       </c>
       <c r="I139" s="11">
-        <v>-1841041</v>
-      </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-2972916</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B140" s="8" t="s">
         <v>31</v>
       </c>
@@ -3621,8 +3627,8 @@
         <v>42</v>
       </c>
       <c r="D140" s="9"/>
-      <c r="E140" s="9" t="s">
-        <v>12</v>
+      <c r="E140" s="9">
+        <v>0</v>
       </c>
       <c r="F140" s="9">
         <v>0</v>
@@ -3637,7 +3643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B141" s="10" t="s">
         <v>34</v>
       </c>
@@ -3645,23 +3651,23 @@
         <v>42</v>
       </c>
       <c r="D141" s="11"/>
-      <c r="E141" s="11" t="s">
-        <v>12</v>
+      <c r="E141" s="11">
+        <v>-1272547</v>
       </c>
       <c r="F141" s="11">
-        <v>-1272547</v>
+        <v>-1810996</v>
       </c>
       <c r="G141" s="11">
-        <v>-1810996</v>
+        <v>-2286229</v>
       </c>
       <c r="H141" s="11">
-        <v>-2286229</v>
+        <v>-5322730</v>
       </c>
       <c r="I141" s="11">
-        <v>-5322730</v>
-      </c>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-6192342</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B142" s="8" t="s">
         <v>35</v>
       </c>
@@ -3669,45 +3675,45 @@
         <v>42</v>
       </c>
       <c r="D142" s="9"/>
-      <c r="E142" s="9" t="s">
-        <v>12</v>
+      <c r="E142" s="9">
+        <v>-445574</v>
       </c>
       <c r="F142" s="9">
-        <v>-445574</v>
+        <v>-617999</v>
       </c>
       <c r="G142" s="9">
-        <v>-617999</v>
+        <v>-879489</v>
       </c>
       <c r="H142" s="9">
-        <v>-879489</v>
+        <v>-1752047</v>
       </c>
       <c r="I142" s="9">
-        <v>-1752047</v>
-      </c>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-2744565</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B143" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C143" s="15"/>
       <c r="D143" s="15"/>
       <c r="E143" s="15">
-        <v>0</v>
+        <v>-2452229</v>
       </c>
       <c r="F143" s="15">
-        <v>-2452229</v>
+        <v>-3794403</v>
       </c>
       <c r="G143" s="15">
-        <v>-3794403</v>
+        <v>-5016199</v>
       </c>
       <c r="H143" s="15">
-        <v>-5016199</v>
+        <v>-9937618</v>
       </c>
       <c r="I143" s="15">
-        <v>-9937618</v>
-      </c>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-13409448</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -3717,7 +3723,7 @@
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -3727,7 +3733,7 @@
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -3737,9 +3743,9 @@
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
     </row>
-    <row r="147" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B147" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C147" s="6"/>
       <c r="D147" s="6"/>
@@ -3759,7 +3765,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -3769,7 +3775,7 @@
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B149" s="8" t="s">
         <v>15</v>
       </c>
@@ -3777,23 +3783,23 @@
         <v>42</v>
       </c>
       <c r="D149" s="9"/>
-      <c r="E149" s="9" t="s">
-        <v>12</v>
+      <c r="E149" s="9">
+        <v>134580</v>
       </c>
       <c r="F149" s="9">
-        <v>134580</v>
+        <v>560866</v>
       </c>
       <c r="G149" s="9">
-        <v>560866</v>
+        <v>689318</v>
       </c>
       <c r="H149" s="9">
-        <v>689318</v>
+        <v>675531</v>
       </c>
       <c r="I149" s="9">
-        <v>675531</v>
-      </c>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1170608</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B150" s="10" t="s">
         <v>18</v>
       </c>
@@ -3801,23 +3807,23 @@
         <v>42</v>
       </c>
       <c r="D150" s="11"/>
-      <c r="E150" s="11" t="s">
-        <v>12</v>
+      <c r="E150" s="11">
+        <v>9172</v>
       </c>
       <c r="F150" s="11">
-        <v>9172</v>
+        <v>85939</v>
       </c>
       <c r="G150" s="11">
-        <v>85939</v>
+        <v>221536</v>
       </c>
       <c r="H150" s="11">
-        <v>221536</v>
+        <v>285649</v>
       </c>
       <c r="I150" s="11">
-        <v>285649</v>
-      </c>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+        <v>261743</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B151" s="8" t="s">
         <v>38</v>
       </c>
@@ -3828,20 +3834,20 @@
       <c r="E151" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F151" s="9" t="s">
-        <v>12</v>
+      <c r="F151" s="9">
+        <v>0</v>
       </c>
       <c r="G151" s="9">
         <v>0</v>
       </c>
-      <c r="H151" s="9">
-        <v>0</v>
+      <c r="H151" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="I151" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B152" s="10" t="s">
         <v>19</v>
       </c>
@@ -3849,23 +3855,23 @@
         <v>42</v>
       </c>
       <c r="D152" s="11"/>
-      <c r="E152" s="11" t="s">
-        <v>12</v>
+      <c r="E152" s="11">
+        <v>304564</v>
       </c>
       <c r="F152" s="11">
-        <v>304564</v>
+        <v>872174</v>
       </c>
       <c r="G152" s="11">
-        <v>872174</v>
+        <v>1123554</v>
       </c>
       <c r="H152" s="11">
-        <v>1123554</v>
+        <v>1214270</v>
       </c>
       <c r="I152" s="11">
-        <v>1214270</v>
-      </c>
-    </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2034952</v>
+      </c>
+    </row>
+    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B153" s="8" t="s">
         <v>31</v>
       </c>
@@ -3876,8 +3882,8 @@
       <c r="E153" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F153" s="9" t="s">
-        <v>12</v>
+      <c r="F153" s="9">
+        <v>0</v>
       </c>
       <c r="G153" s="9">
         <v>0</v>
@@ -3889,7 +3895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B154" s="10" t="s">
         <v>34</v>
       </c>
@@ -3897,23 +3903,23 @@
         <v>42</v>
       </c>
       <c r="D154" s="11"/>
-      <c r="E154" s="11" t="s">
-        <v>12</v>
+      <c r="E154" s="11">
+        <v>1121987</v>
       </c>
       <c r="F154" s="11">
-        <v>1121987</v>
+        <v>1881943</v>
       </c>
       <c r="G154" s="11">
-        <v>1881943</v>
+        <v>2465655</v>
       </c>
       <c r="H154" s="11">
-        <v>2465655</v>
+        <v>8071198</v>
       </c>
       <c r="I154" s="11">
-        <v>8071198</v>
-      </c>
-    </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6362513</v>
+      </c>
+    </row>
+    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B155" s="8" t="s">
         <v>35</v>
       </c>
@@ -3921,42 +3927,42 @@
         <v>42</v>
       </c>
       <c r="D155" s="9"/>
-      <c r="E155" s="9" t="s">
-        <v>12</v>
+      <c r="E155" s="9">
+        <v>349253</v>
       </c>
       <c r="F155" s="9">
-        <v>349253</v>
+        <v>606260</v>
       </c>
       <c r="G155" s="9">
-        <v>606260</v>
+        <v>879322</v>
       </c>
       <c r="H155" s="9">
-        <v>879322</v>
+        <v>987472</v>
       </c>
       <c r="I155" s="9">
-        <v>987472</v>
-      </c>
-    </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2081441</v>
+      </c>
+    </row>
+    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B156" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C156" s="15"/>
       <c r="D156" s="15"/>
       <c r="E156" s="15">
-        <v>0</v>
+        <v>1919556</v>
       </c>
       <c r="F156" s="15">
-        <v>1919556</v>
+        <v>4007182</v>
       </c>
       <c r="G156" s="15">
-        <v>4007182</v>
+        <v>5379385</v>
       </c>
       <c r="H156" s="15">
-        <v>5379385</v>
+        <v>11234120</v>
       </c>
       <c r="I156" s="15">
-        <v>11234120</v>
+        <v>11911257</v>
       </c>
     </row>
   </sheetData>
